--- a/Analiza.xlsx
+++ b/Analiza.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2458,6 +2458,666 @@
       </c>
       <c r="H67" t="n">
         <v>3.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="G68" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G69" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="G70" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.267</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="G71" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G72" t="n">
+        <v>69.28</v>
+      </c>
+      <c r="H72" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="G74" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="H74" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="G75" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.409</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="G76" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.951</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77.81999999999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="G78" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G79" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="G80" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="G81" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.671</v>
+      </c>
+      <c r="G82" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G83" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="H83" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="G84" t="n">
+        <v>80.72</v>
+      </c>
+      <c r="H84" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="H87" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="G88" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.043</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="G89" t="n">
+        <v>75.66</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4409,6 +5069,546 @@
       </c>
       <c r="H64" t="n">
         <v>8.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.604</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="G66" t="n">
+        <v>37</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="G67" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="G68" t="n">
+        <v>70.53</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="G69" t="n">
+        <v>63.87</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="G70" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="H70" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.593</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="G71" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G72" t="n">
+        <v>56.32</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="G74" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="G75" t="n">
+        <v>72.55</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="G76" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G78" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="H78" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.566</v>
+      </c>
+      <c r="G79" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="G80" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G81" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="G82" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -4422,7 +5622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7050,6 +8250,486 @@
       </c>
       <c r="H87" t="n">
         <v>7.7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="G88" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="G89" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="G90" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G91" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="G92" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="G93" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G94" t="n">
+        <v>93</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="G95" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="H95" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G96" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G97" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G98" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.537</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="G99" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.124</v>
+      </c>
+      <c r="G100" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="H100" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.594</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="G101" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.241</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G102" t="n">
+        <v>86.13</v>
+      </c>
+      <c r="H102" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="G103" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7063,7 +8743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9811,6 +11491,606 @@
       </c>
       <c r="H91" t="n">
         <v>13.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="G92" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="G93" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="G94" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="G95" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="G97" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.601</v>
+      </c>
+      <c r="G98" t="n">
+        <v>80.67</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G99" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="H99" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="G100" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="H100" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G101" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="G102" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="G103" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="H104" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G105" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.341</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="G106" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="H106" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="G107" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G108" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="H108" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="G109" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="G110" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.686</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G111" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -9824,7 +12104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12242,6 +14522,786 @@
       </c>
       <c r="H80" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="G81" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="H81" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.374</v>
+      </c>
+      <c r="G82" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="G83" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="H83" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.611</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="G84" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="G85" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="G86" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="G87" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="G89" t="n">
+        <v>91.54000000000001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="G90" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="G91" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="G92" t="n">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>59.19</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="G94" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="G95" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="G96" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="G97" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G98" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G99" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="G100" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="G101" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="H101" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="G102" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H102" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="G103" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="G104" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="G105" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="H105" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -12255,7 +15315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14345,6 +17405,516 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="G70" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="G71" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="G72" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.527</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="G74" t="n">
+        <v>59.89</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="G75" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G76" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="H76" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="G77" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="G78" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="H78" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="G79" t="n">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="G80" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="G82" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.924</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G84" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G85" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="G86" t="n">
+        <v>78.92</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analiza.xlsx
+++ b/Analiza.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3117,6 +3117,396 @@
         <v>75.66</v>
       </c>
       <c r="H89" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="G90" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G92" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="G93" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="G94" t="n">
+        <v>69.62</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="G95" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.528</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="G96" t="n">
+        <v>90</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="G97" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="G98" t="n">
+        <v>56.79</v>
+      </c>
+      <c r="H98" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="G99" t="n">
+        <v>48.61</v>
+      </c>
+      <c r="H99" t="n">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="G100" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="H100" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G101" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="G102" t="n">
+        <v>36.86</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -3131,7 +3521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,6 +5999,276 @@
       </c>
       <c r="H82" t="n">
         <v>6.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="G83" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G84" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.527</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="G85" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="H85" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G86" t="n">
+        <v>47.71</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.756</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="G87" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="G88" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G89" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.272</v>
+      </c>
+      <c r="G90" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G91" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -5622,7 +6282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8730,6 +9390,366 @@
       </c>
       <c r="H103" t="n">
         <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="G104" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G105" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G106" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="G107" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="G108" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.107</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="G109" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="G110" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="G111" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G112" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="G113" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.584</v>
+      </c>
+      <c r="G114" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="G115" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -8743,7 +9763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12091,6 +13111,906 @@
       </c>
       <c r="H111" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.549</v>
+      </c>
+      <c r="G112" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="G113" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="G114" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="H114" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="G115" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="G116" t="n">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="G117" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="G118" t="n">
+        <v>61</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="G119" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="G121" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="H121" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G122" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="H123" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="G124" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="G125" t="n">
+        <v>52.03</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.623</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G126" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.655</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="G127" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="G128" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="G129" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="H129" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G130" t="n">
+        <v>13</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="G132" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="H132" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="G133" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="G134" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="G135" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="H135" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="G136" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="H136" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G137" t="n">
+        <v>51.17</v>
+      </c>
+      <c r="H137" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="G138" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="H138" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="G139" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="G141" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="H141" t="n">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
@@ -12104,7 +14024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15302,6 +17222,306 @@
       </c>
       <c r="H106" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.521</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.453</v>
+      </c>
+      <c r="G107" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="G108" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.036</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G109" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="G110" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="G111" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G112" t="n">
+        <v>77.17</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="G113" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="G114" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="H114" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="G115" t="n">
+        <v>81.59</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.303</v>
+      </c>
+      <c r="G116" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="H116" t="n">
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -15315,7 +17535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17915,6 +20135,426 @@
         <v>2.2</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>67.28</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="G89" t="n">
+        <v>52.72</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.642</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G90" t="n">
+        <v>76.52</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="G91" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.323</v>
+      </c>
+      <c r="G92" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="G93" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="G94" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>75.11</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G96" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.692</v>
+      </c>
+      <c r="G97" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G98" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.497</v>
+      </c>
+      <c r="G99" t="n">
+        <v>90.62</v>
+      </c>
+      <c r="H99" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="G100" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
